--- a/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7763617477730147</v>
+        <v>0.7312940623489682</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7848407233669307</v>
+        <v>0.7696532876094954</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8855981242185181</v>
+        <v>0.8798763558836318</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23311509530592972</v>
+        <v>0.204468772693066</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.64771965981923</v>
+        <v>3.3412818425847974</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.01598399013033305</v>
+        <v>0.01822510134354381</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.2042410714285716</v>
+        <v>1.6430288461538463</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6892037860690655</v>
+        <v>0.5616859025370188</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1836840369632783</v>
+        <v>0.11837484245502525</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7456828383253629</v>
+        <v>0.7297586858239402</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7525051164598808</v>
+        <v>0.7612724790381445</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8536591884763722</v>
+        <v>0.87227289025547</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21655142337455513</v>
+        <v>0.20994812624321688</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.0404875676466214</v>
+        <v>3.1888760708061947</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.018247320743589552</v>
+        <v>0.018684698510960742</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03712147364445567</v>
+        <v>0.04991559817398821</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.17760815937325558</v>
+        <v>0.12380698337971897</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7533729045243163</v>
+        <v>0.6987109731781356</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7613967333668387</v>
+        <v>0.7402705780894033</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8613100622510547</v>
+        <v>0.8590472534276148</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22486396570760986</v>
+        <v>0.1919279338133112</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.19105745747162</v>
+        <v>2.8501606504334247</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.017714032912425185</v>
+        <v>0.020380111545071838</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.037061736966121604</v>
+        <v>0.05145526045801436</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.18424774945521175</v>
+        <v>0.10872722494440659</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7470695608000483</v>
+        <v>0.7115683856349319</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7522028602024539</v>
+        <v>0.7504067562156937</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8600916195022312</v>
+        <v>0.8631550046852421</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2162763214902553</v>
+        <v>0.20034751327339842</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.0355590900565446</v>
+        <v>3.006518705547099</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.018150291309300723</v>
+        <v>0.019490188729051745</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.038554185694213275</v>
+        <v>0.05025278186254556</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17760815937325558</v>
+        <v>0.11837484245502525</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7501314391389867</v>
+        <v>0.7205510985071868</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7583028897380844</v>
+        <v>0.7453364902230412</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8654348036892657</v>
+        <v>0.8579863778182776</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22192253518235325</v>
+        <v>0.19607417547870573</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.13740983049548</v>
+        <v>2.926750247319796</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.01795298056587131</v>
+        <v>0.019183709150130093</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.040264641454092885</v>
+        <v>0.040706068776675174</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17760815937325558</v>
+        <v>0.12667654278055446</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7622124807462752</v>
+        <v>0.701132506114041</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7731179907709563</v>
+        <v>0.7429882851184335</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8468714537172355</v>
+        <v>0.8565376714148466</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.23651286058671966</v>
+        <v>0.19413725316807418</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.4075773279602446</v>
+        <v>2.8908732252178067</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.016925557237730978</v>
+        <v>0.020080325061580473</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03622694228531567</v>
+        <v>0.040868766670173466</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18596289820077597</v>
+        <v>0.1282623812674472</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7642171476789719</v>
+        <v>0.7031830118777735</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7741553581348213</v>
+        <v>0.7437370050824077</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8475470369098593</v>
+        <v>0.8571469189203635</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2375841915654808</v>
+        <v>0.19475199121062223</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.427822558646153</v>
+        <v>2.9022411344313466</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.01677552050255856</v>
+        <v>0.01992210446548086</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03607563697979328</v>
+        <v>0.04081579254630762</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1939984605783745</v>
+        <v>0.12380698337971897</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7737622557092135</v>
+        <v>0.7307430255379703</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7852490725319405</v>
+        <v>0.767676425050585</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8799206071445911</v>
+        <v>0.8836461780906244</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.24948268742166813</v>
+        <v>0.2159087656822388</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.6565573047349584</v>
+        <v>3.3043414781204836</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.016245710008046796</v>
+        <v>0.01861900919206216</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04166571216512181</v>
+        <v>0.05645448831728418</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1984551502679161</v>
+        <v>0.12380698337971897</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7823897763368058</v>
+        <v>0.7244854605312523</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7873555565147269</v>
+        <v>0.7660380078229679</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.881074904693321</v>
+        <v>0.8713843123389496</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25183737402702777</v>
+        <v>0.2143613960080764</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.7026857772996817</v>
+        <v>3.27419851701096</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.015553399258478783</v>
+        <v>0.01854824310604346</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04116848979977804</v>
+        <v>0.05347465992865897</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.1988439535888947</v>
+        <v>0.13210085338292565</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7672235860793205</v>
+        <v>0.7355387401443777</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.77634905850792</v>
+        <v>0.7693930722523852</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8880352633832503</v>
+        <v>0.8771315046097259</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.23987233126183183</v>
+        <v>0.2175469360514179</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.4712532544174954</v>
+        <v>3.3363831683948324</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.016794837614894555</v>
+        <v>0.01766810251319592</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04595374429069085</v>
+        <v>0.05380450866357499</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.18312032447134488</v>
+        <v>0.13401603922042962</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7634880298529192</v>
+        <v>0.713734790696107</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.772980563674135</v>
+        <v>0.7597645376087548</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8850842860580144</v>
+        <v>0.8813206286517842</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23637144396025533</v>
+        <v>0.20857810503177512</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.4049091839193633</v>
+        <v>3.1625827845990955</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.01705424678449519</v>
+        <v>0.019543112481270893</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.045454907380089775</v>
+        <v>0.05781004842275098</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1794324905911567</v>
+        <v>0.11241008015436482</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7592363131001565</v>
+        <v>0.7120684579064206</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7693433172957422</v>
+        <v>0.7585255305196356</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8597511420048565</v>
+        <v>0.8791870370527942</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23267133481280633</v>
+        <v>0.20746172382917757</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.335447767113581</v>
+        <v>3.14122454498783</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.017249472107959043</v>
+        <v>0.019606127438957933</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.039501316388109484</v>
+        <v>0.05743537244432706</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1794324905911567</v>
+        <v>0.11241008015436482</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.759549137227461</v>
+        <v>0.7042107906684907</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7701002970451949</v>
+        <v>0.7537256326179244</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8607984787357943</v>
+        <v>0.8548213680879377</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23343467428059342</v>
+        <v>0.20321433442623316</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.3497228884918777</v>
+        <v>3.0605119023555445</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.017232203289849667</v>
+        <v>0.020033851459379963</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03951298276190848</v>
+        <v>0.0522808223904896</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.18312032447134488</v>
+        <v>0.11078203307979051</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7050647583908938</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7544365688211888</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.855513954198249</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2038357907936105</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.072267581535108</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.01996446834408719</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05236045944589649</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.11364937791514743</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>448.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6625463122146485</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6842950029449468</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6823638076048466</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5730490945384467</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.2544642857142856</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1478908500564575</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5974526622968261</v>
+        <v>0.36507672211998643</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6143879684177765</v>
+        <v>0.4614540989732344</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6003486913808823</v>
+        <v>0.4200019336087514</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.48346521880373355</v>
+        <v>0.33842206188193824</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.765625</v>
+        <v>0.9486607142857143</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2782736409386561</v>
+        <v>0.2209355561570675</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6596838029321186</v>
+        <v>0.6029443714067148</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.686608561920492</v>
+        <v>0.6389523494949259</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6727138459562071</v>
+        <v>0.6256185094985848</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.577815804088649</v>
+        <v>0.4877548849716493</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3660714285714284</v>
+        <v>3.2544642857142856</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0554686456738727</v>
+        <v>1.1478908500564575</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6224304077686899</v>
+        <v>0.5262735800523097</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6391248872868343</v>
+        <v>0.5560197931358885</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6114129851982151</v>
+        <v>0.5362149166642841</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5185643883355485</v>
+        <v>0.38175678864154505</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7433035714285716</v>
+        <v>3.765625</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2219834893035146</v>
+        <v>1.2782736409386561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5264949283876611</v>
+        <v>0.5615786254066389</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5164227895483591</v>
+        <v>0.5981120174779204</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5367535636005183</v>
+        <v>0.6273881037389758</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4007109357446639</v>
+        <v>0.5293324466719813</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.46205357142857145</v>
+        <v>0.125</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.2791171720577392</v>
+        <v>0.3310886388882815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5176091588555668</v>
+        <v>0.5910465448761</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5074130824429327</v>
+        <v>0.6171906329183955</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5270822377381083</v>
+        <v>0.6487597237372006</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.3836517710934267</v>
+        <v>0.4582443669751464</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.484375</v>
+        <v>0.46205357142857145</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3410492277764865</v>
+        <v>1.2791171720577392</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4080307939505592</v>
+        <v>0.5834913606703719</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.40734880279021046</v>
+        <v>0.6111354851997549</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.33331162101813666</v>
+        <v>0.6421450759349575</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2799181284067452</v>
+        <v>0.441703238994672</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.15625</v>
+        <v>0.484375</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.173021204924949</v>
+        <v>1.3410492277764865</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.40336091272081737</v>
+        <v>0.3132904572427911</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3875462981861766</v>
+        <v>0.40274201382029445</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3107224567780677</v>
+        <v>0.3080504141942929</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.23813580909627582</v>
+        <v>0.28449617161792773</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.0267857142857144</v>
+        <v>0.9441964285714286</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.4804305645452465</v>
+        <v>0.22979862166613368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5096511147149662</v>
+        <v>0.420729683924076</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4881702257636071</v>
+        <v>0.41798354973299284</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.39138091891984056</v>
+        <v>0.3584928310353641</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.363240468540168</v>
+        <v>0.2755909583675526</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2589285714285714</v>
+        <v>2.15625</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4408271034687419</v>
+        <v>1.173021204924949</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.529423552839067</v>
+        <v>0.41859722834549623</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.517612078768535</v>
+        <v>0.3866060943112884</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.43057416900126194</v>
+        <v>0.314400946921045</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.39213498693787835</v>
+        <v>0.23123559934034688</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2276785714285716</v>
+        <v>2.0267857142857144</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3876869732854533</v>
+        <v>1.4804305645452465</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.553135624537455</v>
+        <v>0.5363430080864113</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.548729352829979</v>
+        <v>0.4749487588751429</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5328080097274623</v>
+        <v>0.38238563124460284</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.42854070394927285</v>
+        <v>0.37273730293149393</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.9598214285714286</v>
+        <v>1.2589285714285714</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3067342233434522</v>
+        <v>1.4408271034687419</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>448.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5429082381112529</v>
+        <v>0.5376805913185634</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5423098007371917</v>
+        <v>0.48594507376729196</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5250453768414399</v>
+        <v>0.4016676760550307</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4275760801141637</v>
+        <v>0.3811787252721815</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2276785714285716</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3876869732854533</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>448.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5745363403774021</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5277817073792533</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5136076336904906</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4351512020531085</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.9598214285714286</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3067342233434522</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>448.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5619221270774878</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5216603844014821</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5064811465156933</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.43260159553518024</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.7455357142857142</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2049404929550669</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05133928571428571</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.060267857142857144</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.008928571428571428</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.40625</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.40848214285714285</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06473214285714286</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05133928571428571</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04241071428571429</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2924107142857143</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.24776785714285715</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.36160714285714285</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.020089285714285716</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07366071428571429</v>
+        <v>0.9486607142857143</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.015625</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.38392857142857145</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.42410714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08258928571428571</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.020089285714285716</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.024553571428571428</v>
+        <v>0.060267857142857144</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05803571428571429</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.38392857142857145</v>
+        <v>0.40625</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.11607142857142858</v>
+        <v>0.40848214285714285</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.39732142857142855</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.875</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.008928571428571428</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.002232142857142857</v>
+        <v>0.04241071428571429</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.033482142857142856</v>
+        <v>0.2924107142857143</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05357142857142857</v>
+        <v>0.24776785714285715</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.026785714285714284</v>
+        <v>0.36160714285714285</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.875</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.004464285714285714</v>
+        <v>0.125</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.002232142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05133928571428571</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.013392857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.05580357142857143</v>
+        <v>0.875</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.32589285714285715</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.14285714285714285</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.36607142857142855</v>
+        <v>0.033482142857142856</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.10044642857142858</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.008928571428571428</v>
+        <v>0.026785714285714284</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.05580357142857143</v>
+        <v>0.875</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.4642857142857143</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.19866071428571427</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.08705357142857142</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.06696428571428571</v>
+        <v>0.013392857142857142</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.12723214285714285</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.49107142857142855</v>
+        <v>0.05580357142857143</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.140625</v>
+        <v>0.9441964285714286</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.24776785714285715</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.06696428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.19866071428571427</v>
+        <v>0.05580357142857143</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13169642857142858</v>
+        <v>0.32589285714285715</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05803571428571429</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.46651785714285715</v>
+        <v>0.36607142857142855</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14508928571428573</v>
+        <v>0.10044642857142858</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.22321428571428573</v>
+        <v>0.05580357142857143</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.078125</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3392857142857143</v>
+        <v>0.19866071428571427</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.234375</v>
+        <v>0.08705357142857142</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.125</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.12723214285714285</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.25</v>
+        <v>0.49107142857142855</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06919642857142858</v>
+        <v>0.140625</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.43080357142857145</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.18526785714285715</v>
+        <v>0.24776785714285715</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.06473214285714286</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.19866071428571427</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13169642857142858</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05803571428571429</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.46651785714285715</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14508928571428573</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.22321428571428573</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.078125</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.234375</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.125</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06919642857142858</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.43080357142857145</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.18526785714285715</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.06473214285714286</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8640881835330319</v>
+        <v>0.8745928970223326</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8665557133409877</v>
+        <v>0.985633547281717</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8764431544224173</v>
+        <v>0.9786496056381311</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6188212375129138</v>
+        <v>0.9581044234834127</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.493764064663794</v>
+        <v>68.60660502695893</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.010677694884533169</v>
+        <v>0.0017326471344653346</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.5323660714285716</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9935819681520397</v>
+        <v>0.9718527201167781</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6320245471404418</v>
+        <v>0.9567892068036408</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.812605213405159</v>
+        <v>0.9794673804662646</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.816538531775503</v>
+        <v>0.9800258443540422</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7544173190121886</v>
+        <v>0.9608339965568873</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5973552056246235</v>
+        <v>0.9608339965568873</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.450735839398855</v>
+        <v>49.064694484463594</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.015225697364566302</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.004446989384780386</v>
-      </c>
+        <v>0.0019124929015526917</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6030228288920505</v>
+        <v>0.9608339965568873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8188765031615861</v>
+        <v>0.6161568786522835</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8241504780806143</v>
+        <v>0.9778657163754569</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7793984563778337</v>
+        <v>0.9566900670897099</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6097144788532659</v>
+        <v>0.95669006708971</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.686680231399365</v>
+        <v>44.17878314756804</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015207881602699288</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.013036691521689183</v>
-      </c>
+        <v>0.005487982099456085</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.661026265388833</v>
+        <v>0.9566900670897099</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8252554604352177</v>
+        <v>0.6340774428731342</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8252665051687664</v>
+        <v>0.9779175022807169</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7864298551207525</v>
+        <v>0.9567892068036407</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6115499760206692</v>
+        <v>0.9567892068036408</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.723001196569956</v>
+        <v>44.284732402656104</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.014441165829398767</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.018804656888216194</v>
-      </c>
+        <v>0.005507439834781613</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6030228288920505</v>
+        <v>0.9567892068036408</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8491182964870961</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8515842424131368</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8165259574869581</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.656665289553097</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.737829030146815</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.012367462855659572</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01342125666887681</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6892347090336561</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>448.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.973365120146123</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9850130719440164</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9730187910128963</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.966240852737693</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.125</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3310886388882815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>448.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8612164558610068</v>
+        <v>0.9893216800033825</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8641052799173914</v>
+        <v>0.9864140857528185</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.83197832108564</v>
+        <v>0.976561695301111</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7477678114350745</v>
+        <v>0.9667046747677223</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.2544642857142856</v>
+        <v>0.46205357142857145</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1478908500564575</v>
+        <v>1.2791171720577392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>448.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8646823455298128</v>
+        <v>0.990142382916161</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8531362091902353</v>
+        <v>0.9863805677816955</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8059069776373358</v>
+        <v>0.9764816993080851</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7341007178064852</v>
+        <v>0.9668301046611201</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.765625</v>
+        <v>0.484375</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2782736409386561</v>
+        <v>1.3410492277764865</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>448.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8377133828774587</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8515071734147269</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.796557015358911</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7233714491382689</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3660714285714284</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0554686456738727</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>448.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8152847660902286</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8114665451463781</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7300659047164934</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6593409373825482</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7433035714285716</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2219834893035146</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.875</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.125</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.875</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.008928571428571428</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.002232142857142857</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.033482142857142856</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.026785714285714284</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.875</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.004464285714285714</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.002232142857142857</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.05133928571428571</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.060267857142857144</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.008928571428571428</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.40625</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.40848214285714285</v>
+        <v>0.013392857142857142</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.06473214285714286</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05133928571428571</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04241071428571429</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2924107142857143</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.24776785714285715</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.36160714285714285</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.020089285714285716</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07366071428571429</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.015625</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.38392857142857145</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.42410714285714285</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08258928571428571</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.020089285714285716</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.024553571428571428</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05803571428571429</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.38392857142857145</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.11607142857142858</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.39732142857142855</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7378340276231969</v>
+        <v>0.6203837533677298</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7503775004019622</v>
+        <v>0.7190388054124077</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6004833464853052</v>
+        <v>0.6532244030816495</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6004833464853054</v>
+        <v>0.4603550153296128</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.0060491406434906</v>
+        <v>2.5592103794541643</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.023768396862656856</v>
+        <v>0.018024310634827345</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.091517857142857</v>
+        <v>1.709077380952381</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.1888254574833508</v>
+        <v>0.828246633059581</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6004833464853054</v>
+        <v>0.4473818030517584</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6004833464853054</v>
+        <v>0.7378340276231969</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6004833464853054</v>
+        <v>0.7503775004019622</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.36058024940619093</v>
+        <v>0.6004833464853052</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6004833464853054</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6004833464853054</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.0060491406434906</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.023768396862656856</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6004833464853054</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.36058024940619093</v>
+        <v>0.18348215999725181</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6004833464853054</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.36058024940619093</v>
-      </c>
+        <v>0.4998498684834356</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.3331998964517747</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.33319989645177484</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>0.9993996541953948</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.02216553832474695</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6004833464853054</v>
+        <v>0.33319989645177484</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.2888557306166142</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6181945940020361</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.44738180305175823</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.44738180305175845</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.6191352565744788</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.02300629412203284</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.4473818030517584</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>448.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8672404731840486</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8945622802480847</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6932040088933041</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6004833464853055</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.15625</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.173021204924949</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>448.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9188944640375867</v>
+        <v>0.5022120321593287</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.8945622802480847</v>
+        <v>0.741771897682237</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.6932040088933044</v>
+        <v>0.5088668788017814</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6004833464853055</v>
+        <v>0.42818213812604444</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9441964285714286</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.22979862166613368</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>448.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.871239209777057</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8531194151849204</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7614275724427482</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6309033340904577</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.15625</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.173021204924949</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>448.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9101069857928201</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8055524152751373</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6697993582943104</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6043202350941373</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.0267857142857144</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.4804305645452465</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.05580357142857143</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9441964285714286</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.05580357142857143</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.32589285714285715</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.36607142857142855</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.10044642857142858</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.008928571428571428</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.05580357142857143</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.4642857142857143</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.19866071428571427</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.08705357142857142</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.06696428571428571</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.12723214285714285</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8988624813778316</v>
+        <v>0.7412770435221819</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9004884877310853</v>
+        <v>0.8748440883550006</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8189895946363193</v>
+        <v>0.8269216026346622</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8189895946363195</v>
+        <v>0.6997007242985082</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.049088564724563</v>
+        <v>6.990034085137476</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.009462347367915677</v>
+        <v>0.009704411286505902</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.8526785714285714</v>
+        <v>2.65625</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1977577725431132</v>
+        <v>0.811850229676816</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8189895946363194</v>
+        <v>0.686069216922691</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8189895946363194</v>
+        <v>0.8561030717351024</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8189895946363194</v>
+        <v>0.8589324664054034</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6707439561225625</v>
+        <v>0.752744637032648</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8189895946363194</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8189895946363194</v>
-      </c>
+        <v>0.752744637032648</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.088803316529412</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.01341829462670956</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8189895946363194</v>
+        <v>0.752744637032648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6707439561225625</v>
+        <v>0.37435358135226915</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8189895946363194</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6707439561225625</v>
-      </c>
+        <v>0.8138090773934679</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6860692169226908</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.686069216922691</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.370831112498697</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.01483522660999031</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8189895946363194</v>
+        <v>0.686069216922691</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3936943626710028</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7953899469239998</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6602883189401854</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6602883189401854</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.8873453917171914</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.016473253224623577</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6602883189401852</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>448.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9574423150516657</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.953674366499467</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8630566466805298</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8189895946363195</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.9598214285714286</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3067342233434522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>448.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9497505576598682</v>
+        <v>0.7619872910377216</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.953674366499467</v>
+        <v>0.874544885932587</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8630566466805298</v>
+        <v>0.7643419955504743</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8189895946363194</v>
+        <v>0.7196880928127282</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.7455357142857142</v>
+        <v>0.9486607142857143</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2049404929550669</v>
+        <v>0.2209355561570675</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>448.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9262733290927166</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8993964470366904</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8274447392426855</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7701214583547514</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.2544642857142856</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1478908500564575</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>448.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9418483534554281</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9090056187595578</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8479572422899528</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7786493995829051</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.765625</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2782736409386561</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.22321428571428573</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.078125</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.234375</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.125</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.05133928571428571</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9486607142857143</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.25</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06919642857142858</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.43080357142857145</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.18526785714285715</v>
-      </c>
-      <c r="F24" t="n" s="458">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.05133928571428571</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.060267857142857144</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.008928571428571428</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.40625</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.40848214285714285</v>
+      </c>
+      <c r="G26" t="n" s="459">
         <v>0.06473214285714286</v>
       </c>
-      <c r="G24" t="n" s="459">
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.05133928571428571</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.004464285714285714</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.04241071428571429</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2924107142857143</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.24776785714285715</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.36160714285714285</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9794673804662646</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9800258443540422</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9608339965568873</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9608339965568873</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>49.064694484463594</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0019124929015526917</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.4732142857142857</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.2971993334019485</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9608339965568873</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5643669718196311</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5646529944216923</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.2970182111890642</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04112909213638379</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.7433035714285714</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.180546939102151</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3933912790616029</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9608339965568873</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9608339965568873</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9232019689394805</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9608339965568873</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9608339965568873</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9608339965568873</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.15475669844172413</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.393391279061603</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9232019689394805</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9608339965568873</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9232019689394805</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9608339965568873</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.15475669844172413</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.15475669844172413</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.393391279061603</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>448.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.989687087807862</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9901600871972389</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9705761086840041</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9608339965568876</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.46205357142857145</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.2791171720577392</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8414451772403104</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8346829574939226</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5235207624838423</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.39339127906160287</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.2589285714285714</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4408271034687419</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>448.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.99062203706549</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9901600871972389</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9705761086840041</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9608339965568876</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.484375</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.3410492277764865</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8277924941773648</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8346829574939226</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.523520762483842</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.393391279061603</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.2276785714285716</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3876869732854533</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.875</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.008928571428571428</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.002232142857142857</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.033482142857142856</v>
-      </c>
-      <c r="F23" t="n" s="572">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.49107142857142855</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.140625</v>
+      </c>
+      <c r="D23" t="n" s="571">
         <v>0.05357142857142857</v>
       </c>
-      <c r="G23" t="n" s="573">
-        <v>0.026785714285714284</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="E23" t="n" s="572">
+        <v>0.24776785714285715</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.06696428571428571</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.875</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.002232142857142857</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.05133928571428571</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.013392857142857142</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.19866071428571427</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.13169642857142858</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05803571428571429</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.46651785714285715</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14508928571428573</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5643669718196311</v>
+        <v>0.8988624813778316</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5646529944216923</v>
+        <v>0.9004884877310853</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363193</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363195</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.2970182111890642</v>
+        <v>9.049088564724563</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04112909213638379</v>
+        <v>0.009462347367915677</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.7433035714285714</v>
+        <v>1.8526785714285714</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.180546939102151</v>
+        <v>1.1977577725431132</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3933912790616029</v>
+        <v>0.8189895946363194</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.15475669844172413</v>
+        <v>0.6707439561225625</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.15475669844172413</v>
+        <v>0.6707439561225625</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.15475669844172413</v>
+        <v>0.6707439561225625</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>448.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8414451772403104</v>
+        <v>0.9574423150516657</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8346829574939226</v>
+        <v>0.953674366499467</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5235207624838423</v>
+        <v>0.8630566466805298</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.39339127906160287</v>
+        <v>0.8189895946363195</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.2589285714285714</v>
+        <v>1.9598214285714286</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4408271034687419</v>
+        <v>1.3067342233434522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>448.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8277924941773648</v>
+        <v>0.9497505576598682</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8346829574939226</v>
+        <v>0.953674366499467</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.523520762483842</v>
+        <v>0.8630566466805298</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.393391279061603</v>
+        <v>0.8189895946363194</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2276785714285716</v>
+        <v>1.7455357142857142</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3876869732854533</v>
+        <v>1.2049404929550669</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.49107142857142855</v>
+        <v>0.22321428571428573</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.140625</v>
+        <v>0.078125</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05357142857142857</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.24776785714285715</v>
+        <v>0.234375</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.06696428571428571</v>
+        <v>0.125</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.19866071428571427</v>
+        <v>0.25</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.13169642857142858</v>
+        <v>0.06919642857142858</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05803571428571429</v>
+        <v>0.43080357142857145</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.46651785714285715</v>
+        <v>0.18526785714285715</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14508928571428573</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7920611589235727</v>
+        <v>0.7501000699542646</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.798781748205573</v>
+        <v>0.7888605848181997</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8964223894313817</v>
+        <v>0.8980922963605358</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2841664541327159</v>
+        <v>0.27199699904055397</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.969728099127119</v>
+        <v>3.7362071129114174</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.015178647418796504</v>
+        <v>0.01729397789039423</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.226785714285714</v>
+        <v>1.6232142857142857</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7500612524257869</v>
+        <v>0.6494853778125647</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2162864950903522</v>
+        <v>0.18424774945521177</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7602952510968726</v>
+        <v>0.7401313111158467</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7651992435511576</v>
+        <v>0.7627178781921643</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8618231044950233</v>
+        <v>0.8751908388301319</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2658413128086197</v>
+        <v>0.2631643380530693</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.2589300610616934</v>
+        <v>3.2143925230483883</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.01757056659849048</v>
+        <v>0.018416646153964294</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.041751036840512144</v>
+        <v>0.051439941387757454</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.21223726509187668</v>
+        <v>0.18998067938957525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7676530906180843</v>
+        <v>0.7205109036483044</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7735594364774795</v>
+        <v>0.7605434036602499</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8702045938136234</v>
+        <v>0.8736175472780788</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2751387847506928</v>
+        <v>0.260848414906745</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.416169896611946</v>
+        <v>3.1761221669632427</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.01704493697790837</v>
+        <v>0.018874812296871175</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.041538335907203086</v>
+        <v>0.05180885312147965</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.21223726509187668</v>
+        <v>0.18510532382799388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7634847633264881</v>
+        <v>0.7235729749134728</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7670333833875216</v>
+        <v>0.7615441811047676</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8703359176879985</v>
+        <v>0.874097212735593</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2678438951396284</v>
+        <v>0.2619108504781863</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.292460501598053</v>
+        <v>3.1936489729334676</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.017358740869065577</v>
+        <v>0.01861719681592749</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04344481479633815</v>
+        <v>0.05157254681630254</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20743588325774595</v>
+        <v>0.18998067938957525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7691308708045634</v>
+        <v>0.7505130314241788</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7751427237009237</v>
+        <v>0.7797697093459598</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8776545928430433</v>
+        <v>0.8923741258677987</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.27694962210757734</v>
+        <v>0.2823367946178343</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.4472654674956043</v>
+        <v>3.5407014495154088</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.016977700921107303</v>
+        <v>0.01790593610004489</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04499732309511933</v>
+        <v>0.06804634502777293</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2124317069791134</v>
+        <v>0.1989981542729204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7737522830276562</v>
+        <v>0.7179339921342944</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7821767143349063</v>
+        <v>0.7596182313944908</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8673720906553137</v>
+        <v>0.8780796342378865</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.28519675698860636</v>
+        <v>0.25987141965703353</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.59087740296744</v>
+        <v>3.1600492658039374</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.016561821048971984</v>
+        <v>0.01939166069753525</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.044969722088971244</v>
+        <v>0.07109507444008828</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.21239537825584287</v>
+        <v>0.14563013399582125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.775350965048323</v>
+        <v>0.7311521586411028</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7844897365004551</v>
+        <v>0.768782397379961</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8687308327222244</v>
+        <v>0.8808453405130015</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2879831463954916</v>
+        <v>0.2697727427439857</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.6401502358244366</v>
+        <v>3.3249302331159654</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.016466312505174628</v>
+        <v>0.01843996204045754</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04402699303573955</v>
+        <v>0.06854259802287763</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21223726509187668</v>
+        <v>0.18510532382799388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7812014946748268</v>
+        <v>0.7338007894340777</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.790426444045516</v>
+        <v>0.7818944617159979</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8524922167915902</v>
+        <v>0.9046611897562501</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2953111617677605</v>
+        <v>0.28485931239500734</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.7715943714634674</v>
+        <v>3.5849363013325597</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.015818607137586926</v>
+        <v>0.018648081971694153</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03729144288881763</v>
+        <v>0.08034960656044529</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2166390501415551</v>
+        <v>0.165342724080534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7839181134836903</v>
+        <v>0.7331045321564025</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.791650307124813</v>
+        <v>0.7821085737295181</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8532526291482924</v>
+        <v>0.9028313015309198</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.29685429597096663</v>
+        <v>0.28511524122819937</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.799623105751612</v>
+        <v>3.589441710104919</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.015605412921446444</v>
+        <v>0.018613378163374595</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.036894866823257114</v>
+        <v>0.07909472687779347</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.21901616017018227</v>
+        <v>0.18092795441423368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7851493991033696</v>
+        <v>0.7188839238226422</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7921176224327859</v>
+        <v>0.7723017498544045</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9021029879976015</v>
+        <v>0.8691907797080494</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2974465140741962</v>
+        <v>0.27371192993429744</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.810412559749912</v>
+        <v>3.3917772725990507</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.015926206015113197</v>
+        <v>0.019387402843180128</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05301880888607685</v>
+        <v>0.07222141722388814</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.21644460825431838</v>
+        <v>0.18092795441423368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.781146554657328</v>
+        <v>0.7224536406516936</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7886562566817386</v>
+        <v>0.7763824004497565</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8991689409264098</v>
+        <v>0.8713077497035459</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2930990513236192</v>
+        <v>0.27837894639118144</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.7316281253432</v>
+        <v>3.4719199294298635</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.01621151309954272</v>
+        <v>0.01914223761281414</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05244835499423831</v>
+        <v>0.07077516698188002</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20341972748529624</v>
+        <v>0.18510532382799388</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6858212571620501</v>
+        <v>0.5929986109420783</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7070533547046489</v>
+        <v>0.6413461354036173</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6977197050277706</v>
+        <v>0.66500829649964</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5907027742368989</v>
+        <v>0.5584172474374329</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.2544642857142856</v>
+        <v>0.125</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1478908500564575</v>
+        <v>0.3310886388882815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6351553737014414</v>
+        <v>0.6169183711767842</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6509362779700916</v>
+        <v>0.6555447089843639</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6296313858037891</v>
+        <v>0.6812462093443492</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5155575521140499</v>
+        <v>0.47078666662196594</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.765625</v>
+        <v>0.46205357142857145</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2782736409386561</v>
+        <v>1.2791171720577392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6674879596092239</v>
+        <v>0.6091502098503352</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6949662984557409</v>
+        <v>0.6490310776232138</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6716861692409396</v>
+        <v>0.6742492718077202</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5775286184001908</v>
+        <v>0.45273134632499595</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3660714285714284</v>
+        <v>0.484375</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0554686456738727</v>
+        <v>1.3410492277764865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6221094165897154</v>
+        <v>0.419910938924018</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6400065435709755</v>
+        <v>0.5238027118705286</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.600375174893579</v>
+        <v>0.4685758240421106</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5059100820886899</v>
+        <v>0.3912940806938489</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7433035714285716</v>
+        <v>0.9486607142857143</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2219834893035146</v>
+        <v>0.2209355561570675</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5966015739623888</v>
+        <v>0.6213055465810137</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5902290229887777</v>
+        <v>0.6615345186907374</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5680929697885448</v>
+        <v>0.6338022161388951</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.46574330210196263</v>
+        <v>0.49347036377469095</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.9598214285714286</v>
+        <v>3.2544642857142856</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3067342233434522</v>
+        <v>1.1478908500564575</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5756429103863518</v>
+        <v>0.5622010281186532</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5734111149453066</v>
+        <v>0.600831008464173</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5496597724669902</v>
+        <v>0.569771532534513</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.45256810081846005</v>
+        <v>0.40413502248519095</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.7455357142857142</v>
+        <v>3.765625</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2049404929550669</v>
+        <v>1.2782736409386561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5413325310619997</v>
+        <v>0.5778308358094536</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5291811561436308</v>
+        <v>0.5083375379398746</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5458043847129951</v>
+        <v>0.39622911846036785</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4035058740412474</v>
+        <v>0.39980147153670914</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.46205357142857145</v>
+        <v>1.2589285714285714</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.2791171720577392</v>
+        <v>1.4408271034687419</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5321953039922513</v>
+        <v>0.5709789695773749</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.519867207036544</v>
+        <v>0.5067684770773501</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5358608396102706</v>
+        <v>0.4020381686235885</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.38521374207672154</v>
+        <v>0.39908145902859743</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.484375</v>
+        <v>2.2276785714285716</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.3410492277764865</v>
+        <v>1.3876869732854533</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5427561246051806</v>
+        <v>0.6276648366064608</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5162927355081989</v>
+        <v>0.5766804492114856</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4063114405072207</v>
+        <v>0.5524332502394502</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3852773761598709</v>
+        <v>0.4804506974598539</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.2589285714285714</v>
+        <v>1.9598214285714286</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4408271034687419</v>
+        <v>1.3067342233434522</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>448.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5587581735917138</v>
+        <v>0.5998726777071737</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5425328685567058</v>
+        <v>0.5480676791069188</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4419998559402683</v>
+        <v>0.5213545337849109</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4108670246371071</v>
+        <v>0.45986752998522673</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2276785714285716</v>
+        <v>1.7455357142857142</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3876869732854533</v>
+        <v>1.2049404929550669</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.05133928571428571</v>
+        <v>0.875</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.060267857142857144</v>
+        <v>0.125</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.008928571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.40625</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.40848214285714285</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.06473214285714286</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.05133928571428571</v>
+        <v>0.875</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.004464285714285714</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04241071428571429</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2924107142857143</v>
+        <v>0.033482142857142856</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.24776785714285715</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.36160714285714285</v>
+        <v>0.026785714285714284</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.020089285714285716</v>
+        <v>0.875</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.07366071428571429</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.015625</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.38392857142857145</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.42410714285714285</v>
+        <v>0.013392857142857142</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08258928571428571</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.020089285714285716</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.024553571428571428</v>
+        <v>0.9486607142857143</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.05803571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.38392857142857145</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.11607142857142858</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.39732142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.22321428571428573</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.078125</v>
+        <v>0.060267857142857144</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3392857142857143</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.234375</v>
+        <v>0.40625</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.125</v>
+        <v>0.40848214285714285</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.25</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.06919642857142858</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.43080357142857145</v>
+        <v>0.04241071428571429</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.18526785714285715</v>
+        <v>0.2924107142857143</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.06473214285714286</v>
+        <v>0.24776785714285715</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.36160714285714285</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.875</v>
+        <v>0.49107142857142855</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.008928571428571428</v>
+        <v>0.140625</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.002232142857142857</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.033482142857142856</v>
+        <v>0.24776785714285715</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.05357142857142857</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.026785714285714284</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.875</v>
+        <v>0.19866071428571427</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.004464285714285714</v>
+        <v>0.13169642857142858</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.002232142857142857</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.05133928571428571</v>
+        <v>0.46651785714285715</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.013392857142857142</v>
+        <v>0.14508928571428573</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.49107142857142855</v>
+        <v>0.22321428571428573</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.140625</v>
+        <v>0.078125</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05357142857142857</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.24776785714285715</v>
+        <v>0.234375</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.06696428571428571</v>
+        <v>0.125</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.19866071428571427</v>
+        <v>0.25</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.13169642857142858</v>
+        <v>0.06919642857142858</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05803571428571429</v>
+        <v>0.43080357142857145</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.46651785714285715</v>
+        <v>0.18526785714285715</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14508928571428573</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
